--- a/database/facebookaccount/tài khoản facebook.xlsx
+++ b/database/facebookaccount/tài khoản facebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCS\fb-selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCS\fb-selenium\database\facebookaccount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDB9E1E-2E08-4C4E-BFBC-303E6B162D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B064C-1D50-4873-BD3C-EEBA29EB4CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3448FD9-AE67-4040-8CCF-1E0FD700234F}"/>
   </bookViews>
@@ -43,10 +43,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +77,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +420,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -417,6 +428,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E1AC0096-185D-4CE7-BE40-819E90F4A361}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>